--- a/data/outputs/management_elsevier/68.xlsx
+++ b/data/outputs/management_elsevier/68.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:BU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84943364118</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>4929</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1164,6 +1180,12 @@
           <t>2-s2.0-84943355320</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2309</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1371,6 +1393,12 @@
           <t>2-s2.0-84943279625</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1634</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1596,6 +1624,12 @@
           <t>2-s2.0-84943365486</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2617</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1817,6 +1851,12 @@
           <t>2-s2.0-84943361231</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>3591</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2024,6 +2064,12 @@
           <t>2-s2.0-84943361933</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2235,6 +2281,12 @@
           <t>2-s2.0-84943358788</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2253</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84938423962</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>4067</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2675,6 +2733,12 @@
           <t>2-s2.0-84938419084</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1408</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2900,6 +2964,12 @@
           <t>2-s2.0-84938424022</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2058</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3121,6 +3191,12 @@
           <t>2-s2.0-84938416138</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3329,6 +3405,12 @@
         <is>
           <t>2-s2.0-84938419507</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>6282</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -3535,6 +3617,12 @@
           <t>2-s2.0-84928929602</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>6920</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3760,6 +3848,12 @@
           <t>2-s2.0-84928928234</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>6805</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3985,6 +4079,12 @@
           <t>2-s2.0-84928924980</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>3909</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4210,6 +4310,12 @@
           <t>2-s2.0-84928929552</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2617</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4427,6 +4533,12 @@
           <t>2-s2.0-84928926076</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>4884</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4644,6 +4756,12 @@
           <t>2-s2.0-84928929113</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1929</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4865,6 +4983,12 @@
           <t>2-s2.0-84928924380</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>16475</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5068,6 +5192,12 @@
           <t>2-s2.0-84933670613</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1646</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5284,6 +5414,12 @@
         <is>
           <t>2-s2.0-84933673326</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>3187</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -5498,6 +5634,12 @@
           <t>2-s2.0-84933672947</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>5662</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5724,6 +5866,12 @@
         <is>
           <t>2-s2.0-84933544843</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>8903</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -5938,6 +6086,12 @@
           <t>2-s2.0-84933670564</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>3699</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6149,6 +6303,12 @@
           <t>2-s2.0-84933678903</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>5677</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6363,6 +6523,12 @@
         <is>
           <t>2-s2.0-84933676098</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>8235</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -6569,6 +6735,12 @@
           <t>2-s2.0-84933574680</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2550</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6785,6 +6957,12 @@
         <is>
           <t>2-s2.0-84933519269</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>3998</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -6993,6 +7171,12 @@
           <t>2-s2.0-84924055418</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3227</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7200,6 +7384,12 @@
           <t>2-s2.0-84924212513</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1625</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7415,6 +7605,12 @@
           <t>2-s2.0-84924198454</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2049</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7630,6 +7826,12 @@
           <t>2-s2.0-84924158940</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3849</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7845,6 +8047,12 @@
           <t>2-s2.0-84924106043</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>3463</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8058,6 +8266,12 @@
           <t>2-s2.0-84924147484</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2910</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8273,6 +8487,12 @@
           <t>2-s2.0-84922375333</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>7785</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8500,6 +8720,12 @@
           <t>2-s2.0-84922351848</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1617</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8709,6 +8935,12 @@
           <t>2-s2.0-84922357862</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2568</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8916,6 +9148,12 @@
           <t>2-s2.0-84922476861</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3936</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9141,6 +9379,12 @@
           <t>2-s2.0-84922477252</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>6356</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9350,6 +9594,12 @@
           <t>2-s2.0-84922417547</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3595</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9565,6 +9815,12 @@
           <t>2-s2.0-84922376780</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>2863</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9776,6 +10032,12 @@
           <t>2-s2.0-84912122988</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>8369</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9990,6 +10252,12 @@
         <is>
           <t>2-s2.0-85027947315</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>20319</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -10190,6 +10458,12 @@
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="inlineStr"/>
       <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10403,6 +10677,12 @@
           <t>2-s2.0-84912143444</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>10290</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10626,6 +10906,12 @@
           <t>2-s2.0-84912117990</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>4756</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10845,6 +11131,12 @@
           <t>2-s2.0-84912095219</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>3964</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11070,6 +11362,12 @@
           <t>2-s2.0-85027958772</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>13815</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
